--- a/biology/Mycologie/Omphalotacée/Omphalotacée.xlsx
+++ b/biology/Mycologie/Omphalotacée/Omphalotacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Omphalotac%C3%A9e</t>
+          <t>Omphalotacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Omphalotacées (en latin Omphalotaceae) étaient une famille obsolète de champignons basidiomycètes de l'ordre des Agaricales. Elle ne comprenait que le genre Omphalotus qui regroupe un petit nombre d'espèces jadis classées dans les clitocybes, pleurotes, lentins, lampteromyces etc. qui sont tous toxiques et dont certains sont bioluminescents.
 La famille des Omphalotaceae, décrite A. Bresinsky in 1985 comme distincte des Ticholomataceae, a été parfois synonymisée aux Marasmiaceae.  Cependant l'analyse séquentielle de leur ADN par Moncalvo et al. en 2002, puis Matheny et al. en 2006 a conduit à leur reconnaissance par les auteurs modernes. Au sens actuel, elle regroupe les genres suivants : Anthracophyllum, Gymnopus, Lentinula, Marasmiellus, Mycetinis, Rhodocollybia, Omphalotus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Omphalotac%C3%A9e</t>
+          <t>Omphalotacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Illustration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Omphalotus nidiformis luminescent
 Pleurote "clair de lune" (Lampteromyces japonicus)</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Omphalotac%C3%A9e</t>
+          <t>Omphalotacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (19 mai 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (19 mai 2018) :
 genre Anthracophyllum
 genre Caripia
 genre Gymnopanella
@@ -556,7 +572,7 @@
 genre Neonothopanus
 genre Omphalotus
 genre Rhodocollybia
-Selon Catalogue of Life                                   (19 mai 2018)[3] :
+Selon Catalogue of Life                                   (19 mai 2018) :
 genre Anthracophyllum
 genre Connopus
 genre Gymnopanella
@@ -568,7 +584,7 @@
 genre Neonothopanus
 genre Omphalotus
 genre Rhodocollybia
-Selon NCBI  (19 mai 2018)[4] :
+Selon NCBI  (19 mai 2018) :
 genre Anthracophyllum
 genre Caripia
 genre Gymnopanella
